--- a/mock-api/file/active-cor.xlsx
+++ b/mock-api/file/active-cor.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -500,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>5001</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -517,7 +517,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>5002</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1000</v>
+        <v>5003</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>5003</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
